--- a/backend/services/case-management/src/test/resources/file/2.xlsx
+++ b/backend/services/case-management/src/test/resources/file/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ms\metersphere\backend\services\case-management\src\test\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B60ECB-DF93-4076-A8ED-914842A48353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E0251-2062-4559-85C3-1E1DF7EB5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6915" yWindow="2115" windowWidth="28095" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,12 +212,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>用例名称</t>
   </si>
   <si>
     <t>所属模块</t>
@@ -735,7 +732,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,193 +741,191 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
